--- a/PetriNetCode/InputFiles/Test_Petri_Net.xlsx
+++ b/PetriNetCode/InputFiles/Test_Petri_Net.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evxgc5\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evxgc5\GitHub\PetriNetCode\PetriNetCode\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -532,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1156,8 +1156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="D124" sqref="D124"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="B121" sqref="B121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1616,7 +1616,7 @@
         <v>5</v>
       </c>
       <c r="C65">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -1829,7 +1829,7 @@
         <v>1</v>
       </c>
       <c r="C92">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -1977,7 +1977,7 @@
         <v>15</v>
       </c>
       <c r="B115">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -2013,7 +2013,7 @@
         <v>16</v>
       </c>
       <c r="B121">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -2046,7 +2046,7 @@
         <v>1</v>
       </c>
       <c r="C124">
-        <v>1</v>
+        <v>4000</v>
       </c>
       <c r="D124">
         <v>1</v>
